--- a/biology/Botanique/Leptospermum/Leptospermum.xlsx
+++ b/biology/Botanique/Leptospermum/Leptospermum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leptospermum est un genre d'environ 80 à 86 espèces de plantes de la famille des Myrtaceae. On les trouve dans toute l'Australie avec une plus grande diversité dans le sud du pays. Deux espèces se rencontrent aussi en Malaisie et une (Leptospermum scoparium ou manuka) en Nouvelle-Zélande.
 Ce sont des buissons, des arbustes et quelquefois des arbres atteignant 1 à 8 mètres de haut rarement 15 mètres avec un branchage touffu. Ce sont des plantes vivaces. Les feuilles sont alternes, simples, pointues, le plus souvent ne dépassant pas un centimètre de long. Les fleurs peuvent atteindre 3 cm de diamètre et leurs cinq pétales sont blancs, roses ou rouges.
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les principales espèces sont les suivantes :
 Leptospermum amboinense -
@@ -597,7 +611,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces portent le nom commun d' arbres à thé car les premiers colons utilisaient des mélanges de plusieurs espèces pour faire des tisanes ("herbal tea" en anglais) riches en acide ascorbique.
 Le miel de Leptospermum est apprécié.
